--- a/Model Answers Task 1.xlsx
+++ b/Model Answers Task 1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF37861-D764-4CD0-95CD-FBD89F9B25CF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{CBF37861-D764-4CD0-95CD-FBD89F9B25CF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{FA79A843-79E1-4E96-91C4-CB1AE81D9EBC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5085" yWindow="2160" windowWidth="14160" windowHeight="11385" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formal Instr" sheetId="21" r:id="rId1"/>
@@ -18,17 +18,23 @@
     <sheet name="Spec" sheetId="14" r:id="rId8"/>
     <sheet name="Drg's" sheetId="13" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="140">
   <si>
     <t>1. Formal Instrument</t>
   </si>
@@ -987,7 +993,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1007,17 +1013,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1224,19 +1219,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1354,7 +1336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1362,79 +1344,40 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1449,34 +1392,31 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1485,55 +1425,55 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1545,68 +1485,56 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="14" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1614,31 +1542,46 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1932,246 +1875,246 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="55.28515625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="8"/>
-    <col min="5" max="5" width="52.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="8"/>
-    <col min="7" max="7" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="46" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="55.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="6"/>
+    <col min="5" max="5" width="52.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="6"/>
+    <col min="7" max="7" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="28" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+    <row r="1" spans="1:7" s="15" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="29"/>
-    </row>
-    <row r="2" spans="1:7" s="28" customFormat="1" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="93" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="16"/>
+    </row>
+    <row r="2" spans="1:7" s="15" customFormat="1" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="29"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="89" t="s">
+      <c r="B3" s="70"/>
+      <c r="C3" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="91" t="s">
+      <c r="D3" s="72"/>
+      <c r="E3" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="92"/>
-      <c r="G3" s="30"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="31"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="46">
-        <v>0.5</v>
-      </c>
-      <c r="C5" s="80" t="s">
+      <c r="B5" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="82">
+      <c r="D5" s="79">
         <v>1</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="31"/>
+      <c r="F5" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="46">
-        <v>0.5</v>
-      </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="52" t="s">
+      <c r="B6" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="78"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="31"/>
+      <c r="F6" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="18"/>
     </row>
     <row r="7" spans="1:7" s="2" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="46">
-        <v>0.5</v>
-      </c>
-      <c r="C7" s="84" t="s">
+      <c r="B7" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="82">
-        <v>0.5</v>
-      </c>
-      <c r="E7" s="56" t="s">
+      <c r="D7" s="79">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="G7" s="31"/>
+      <c r="F7" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="46">
-        <v>0.5</v>
-      </c>
-      <c r="C8" s="81"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="52" t="s">
+      <c r="B8" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="78"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="G8" s="31"/>
+      <c r="F8" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="46">
-        <v>0.5</v>
-      </c>
-      <c r="C9" s="84" t="s">
+      <c r="B9" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="82">
-        <v>0.5</v>
-      </c>
-      <c r="E9" s="56" t="s">
+      <c r="D9" s="79">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="G9" s="31"/>
+      <c r="F9" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="46">
-        <v>0.5</v>
-      </c>
-      <c r="C10" s="81"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="31"/>
+      <c r="B10" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="78"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="46">
-        <v>0.5</v>
-      </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="31"/>
+      <c r="B11" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="46">
-        <v>0.5</v>
-      </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="31"/>
+      <c r="B12" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="C12" s="43"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="C13" s="37" t="s">
+      <c r="B13" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="37" t="s">
+      <c r="D13" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="G13" s="31"/>
-    </row>
-    <row r="14" spans="1:7" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="44" t="s">
+      <c r="F13" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" spans="1:7" s="29" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="47">
+      <c r="B14" s="33">
         <v>2</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="48">
+      <c r="D14" s="34">
         <v>1.5</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="48">
+      <c r="F14" s="34">
         <v>1.5</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="F15" s="40">
+      <c r="F15" s="26">
         <f>B14+D14+F14</f>
         <v>5</v>
       </c>
@@ -2179,17 +2122,17 @@
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A2:F2"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A2:F2"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0.11811023622047245"/>
@@ -2202,296 +2145,282 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="8"/>
-    <col min="3" max="3" width="55.28515625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="8"/>
-    <col min="5" max="5" width="52.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="8"/>
-    <col min="7" max="7" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="41.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="6"/>
+    <col min="3" max="3" width="55.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="6"/>
+    <col min="5" max="5" width="52.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="6"/>
+    <col min="7" max="7" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="28" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="29"/>
-    </row>
-    <row r="2" spans="1:7" s="28" customFormat="1" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="93" t="s">
+    <row r="1" spans="1:7" s="15" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="16"/>
+    </row>
+    <row r="2" spans="1:7" s="15" customFormat="1" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="29"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="95" t="s">
+      <c r="B3" s="74"/>
+      <c r="C3" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="91" t="s">
+      <c r="D3" s="72"/>
+      <c r="E3" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="92"/>
-      <c r="G3" s="30"/>
-    </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="31"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="31"/>
+      <c r="A5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="31"/>
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="18"/>
     </row>
     <row r="7" spans="1:7" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="G7" s="31"/>
+      <c r="A7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="G8" s="31"/>
+      <c r="A8" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="31"/>
-    </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="31"/>
-    </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="B9" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="18"/>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="C11" s="21" t="s">
+      <c r="B10" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="31"/>
+      <c r="D10" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" spans="1:7" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="31"/>
-    </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+      <c r="A12" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="C13" s="37" t="s">
+      <c r="B12" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="C12" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="37" t="s">
+      <c r="D12" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="G13" s="31"/>
-    </row>
-    <row r="14" spans="1:7" s="43" customFormat="1" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="44" t="s">
+      <c r="F12" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="1:7" s="29" customFormat="1" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="48">
+      <c r="B13" s="34">
         <v>1.5</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C13" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="48">
+      <c r="D13" s="34">
         <v>2</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E13" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="48">
+      <c r="F13" s="34">
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="41" t="s">
+    <row r="14" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="F15" s="40">
-        <f>B14+D14+F14</f>
+      <c r="F14" s="26">
+        <f>B13+D13+F13</f>
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="61"/>
-    </row>
-    <row r="17" spans="3:7" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="C17" s="61"/>
-    </row>
-    <row r="20" spans="3:7" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="C20" s="62"/>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="47"/>
+    </row>
+    <row r="16" spans="1:7" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="C16" s="47"/>
+    </row>
+    <row r="19" spans="3:7" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="C19" s="48"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C20" s="49"/>
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C21" s="63"/>
+    <row r="21" spans="3:7" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="C21"/>
       <c r="D21"/>
-      <c r="E21"/>
+      <c r="E21" s="48"/>
       <c r="F21"/>
-      <c r="G21"/>
-    </row>
-    <row r="22" spans="3:7" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22" s="62"/>
-      <c r="F22"/>
-      <c r="G22" s="62"/>
+      <c r="G21" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:F1"/>
+  <mergeCells count="4">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -2508,204 +2437,192 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A3" sqref="A3:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="8"/>
-    <col min="3" max="3" width="55.28515625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="8"/>
-    <col min="5" max="5" width="52.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="8"/>
-    <col min="7" max="7" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="41.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="6"/>
+    <col min="3" max="3" width="55.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="6"/>
+    <col min="5" max="5" width="52.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="6"/>
+    <col min="7" max="7" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="28" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="29"/>
-    </row>
-    <row r="2" spans="1:7" s="28" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="93" t="s">
+    <row r="1" spans="1:7" s="15" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="16"/>
+    </row>
+    <row r="2" spans="1:7" s="15" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="29"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="89" t="s">
+      <c r="B3" s="70"/>
+      <c r="C3" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="91" t="s">
+      <c r="D3" s="72"/>
+      <c r="E3" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="92"/>
-      <c r="G3" s="30"/>
-    </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="31"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="37">
+        <v>1.5</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="37">
+        <v>1.5</v>
+      </c>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="51">
+      <c r="A5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="37">
+        <v>1</v>
+      </c>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="18"/>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="18"/>
+    </row>
+    <row r="10" spans="1:7" s="29" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="33">
+        <v>2</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="34">
         <v>1.5</v>
       </c>
-      <c r="E5" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="51">
+      <c r="E10" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="34">
         <v>1.5</v>
       </c>
-      <c r="G5" s="31"/>
-    </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="51">
-        <v>1</v>
-      </c>
-      <c r="G6" s="31"/>
-    </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" s="26">
+        <f>B10+D10+F10</f>
         <v>5</v>
       </c>
-      <c r="B7" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="31"/>
-    </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="31"/>
-    </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="31"/>
-    </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="G10" s="31"/>
-    </row>
-    <row r="11" spans="1:7" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="47">
-        <v>2</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="48">
-        <v>1.5</v>
-      </c>
-      <c r="E11" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="48">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="F12" s="40">
-        <f>B11+D11+F11</f>
-        <v>5</v>
-      </c>
-    </row>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:F1"/>
+  <mergeCells count="4">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -2722,185 +2639,173 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A3" sqref="A3:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="8"/>
-    <col min="3" max="3" width="55.28515625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="8"/>
-    <col min="5" max="5" width="52.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="8"/>
-    <col min="7" max="7" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="41.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="6"/>
+    <col min="3" max="3" width="55.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="6"/>
+    <col min="5" max="5" width="52.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="6"/>
+    <col min="7" max="7" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="28" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="29"/>
-    </row>
-    <row r="2" spans="1:7" s="28" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="93" t="s">
+    <row r="1" spans="1:7" s="15" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="16"/>
+    </row>
+    <row r="2" spans="1:7" s="15" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="29"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="89" t="s">
+      <c r="B3" s="70"/>
+      <c r="C3" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="91" t="s">
+      <c r="D3" s="72"/>
+      <c r="E3" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="92"/>
-      <c r="G3" s="30"/>
-    </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="31"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="37">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="37">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="37">
+        <v>1</v>
+      </c>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="51">
+      <c r="A5" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="37">
         <v>1</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="51">
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="37">
         <v>1</v>
       </c>
-      <c r="E5" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="51">
+      <c r="E5" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="37">
         <v>1</v>
       </c>
-      <c r="G5" s="31"/>
-    </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="51">
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:7" s="28" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="37">
         <v>1</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="51">
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="37">
         <v>1</v>
       </c>
-      <c r="E6" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="51">
+      <c r="E6" s="58"/>
+      <c r="F6" s="57"/>
+    </row>
+    <row r="7" spans="1:7" s="28" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="37">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="29" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="55">
+        <v>2</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="53">
+        <v>2</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="53">
         <v>1</v>
       </c>
-      <c r="G6" s="31"/>
-    </row>
-    <row r="7" spans="1:7" s="42" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="51">
-        <v>1</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="51">
-        <v>1</v>
-      </c>
-      <c r="E7" s="72"/>
-      <c r="F7" s="71"/>
-    </row>
-    <row r="8" spans="1:7" s="42" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="51">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="69">
-        <v>2</v>
-      </c>
-      <c r="C9" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="67">
-        <v>2</v>
-      </c>
-      <c r="E9" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="41" t="s">
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="F10" s="40">
-        <f>B9+D9+F9</f>
+      <c r="F9" s="26">
+        <f>B8+D8+F8</f>
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="65"/>
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C11" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:F1"/>
+  <mergeCells count="4">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -2917,254 +2822,242 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A3" sqref="A3:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="8"/>
-    <col min="3" max="3" width="55.28515625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="8"/>
-    <col min="5" max="5" width="52.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="8"/>
-    <col min="7" max="7" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="41.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="6"/>
+    <col min="3" max="3" width="55.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="6"/>
+    <col min="5" max="5" width="52.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="6"/>
+    <col min="7" max="7" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="28" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="29"/>
-    </row>
-    <row r="2" spans="1:7" s="28" customFormat="1" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="93" t="s">
+    <row r="1" spans="1:7" s="15" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="16"/>
+    </row>
+    <row r="2" spans="1:7" s="15" customFormat="1" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="29"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="89" t="s">
+      <c r="B3" s="70"/>
+      <c r="C3" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="91" t="s">
+      <c r="D3" s="72"/>
+      <c r="E3" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="92"/>
-      <c r="G3" s="30"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="32"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="37">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="37"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="51">
+      <c r="A5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="18"/>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="18"/>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="18"/>
+    </row>
+    <row r="12" spans="1:7" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="37">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="29" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="33">
         <v>1</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="31"/>
-    </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="73" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="31"/>
-    </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="E7" s="73" t="s">
-        <v>87</v>
-      </c>
-      <c r="F7" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="G7" s="31"/>
-    </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="E8" s="73" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="G8" s="31"/>
-    </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="E9" s="73" t="s">
-        <v>88</v>
-      </c>
-      <c r="F9" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="G9" s="31"/>
-    </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="F10" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="G10" s="31"/>
-    </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="G11" s="31"/>
-    </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="F12" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="G12" s="31"/>
-    </row>
-    <row r="13" spans="1:7" s="42" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="51">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="44" t="s">
+      <c r="C13" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="47">
-        <v>1</v>
-      </c>
-      <c r="C14" s="45" t="s">
+      <c r="D13" s="34">
+        <v>2</v>
+      </c>
+      <c r="E13" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="48">
+      <c r="F13" s="34">
         <v>2</v>
       </c>
-      <c r="E14" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="41" t="s">
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="F15" s="40">
-        <f>B14+D14+F14</f>
+      <c r="F14" s="26">
+        <f>B13+D13+F13</f>
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:F1"/>
+  <mergeCells count="4">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -3181,205 +3074,193 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A3" sqref="A3:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="8"/>
-    <col min="3" max="3" width="49.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="50.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="8"/>
-    <col min="7" max="7" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="49" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="6"/>
+    <col min="3" max="3" width="49.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="50.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="6"/>
+    <col min="7" max="7" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="28" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="29"/>
-    </row>
-    <row r="2" spans="1:7" s="28" customFormat="1" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="93" t="s">
+    <row r="1" spans="1:7" s="15" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="16"/>
+    </row>
+    <row r="2" spans="1:7" s="15" customFormat="1" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="29"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="89" t="s">
+      <c r="B3" s="70"/>
+      <c r="C3" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="91" t="s">
+      <c r="D3" s="72"/>
+      <c r="E3" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="92"/>
-      <c r="G3" s="30"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="32"/>
-    </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="F3" s="74"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="B4" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D4" s="37">
         <v>1</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E4" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F5" s="51">
+      <c r="F4" s="37">
         <v>2</v>
       </c>
-      <c r="G5" s="31"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="37">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="37">
+        <v>1</v>
+      </c>
+      <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="51">
+      <c r="A6" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="37">
         <v>1</v>
       </c>
-      <c r="E6" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="F6" s="51">
+      <c r="E6" s="12"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="18"/>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:7" s="28" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="37">
         <v>1</v>
       </c>
-      <c r="G6" s="31"/>
-    </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="51">
+      <c r="E9" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="37">
         <v>1</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="31"/>
-    </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="31"/>
-    </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="31"/>
-    </row>
-    <row r="10" spans="1:7" s="42" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="51">
-        <v>1</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="43" customFormat="1" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="44" t="s">
+    </row>
+    <row r="10" spans="1:7" s="29" customFormat="1" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="47">
+      <c r="B10" s="33">
         <v>1.5</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C10" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="48">
+      <c r="D10" s="34">
         <v>2</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E10" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="48">
+      <c r="F10" s="34">
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="41" t="s">
+    <row r="11" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="F12" s="40">
-        <f>B11+D11+F11</f>
+      <c r="F11" s="26">
+        <f>B10+D10+F10</f>
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:F1"/>
+  <mergeCells count="4">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -3396,243 +3277,232 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="8"/>
-    <col min="3" max="3" width="55.28515625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="8"/>
-    <col min="5" max="5" width="55.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="8"/>
-    <col min="7" max="7" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="41.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="6"/>
+    <col min="3" max="3" width="55.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="6"/>
+    <col min="5" max="5" width="55.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="6"/>
+    <col min="7" max="7" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="28" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="29"/>
-    </row>
-    <row r="2" spans="1:7" s="28" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="93" t="s">
+    <row r="1" spans="1:7" s="15" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="16"/>
+    </row>
+    <row r="2" spans="1:7" s="15" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="29"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="89" t="s">
+      <c r="B3" s="70"/>
+      <c r="C3" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="91" t="s">
+      <c r="D3" s="72"/>
+      <c r="E3" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="92"/>
-      <c r="G3" s="30"/>
-    </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="31"/>
-    </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74" t="s">
+      <c r="F3" s="74"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="7" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="E5" s="21" t="s">
+      <c r="D4" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="31"/>
+      <c r="F4" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="31"/>
-    </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B6" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="E7" s="21" t="s">
+      <c r="D6" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="F7" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="G7" s="31"/>
-    </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="F6" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="18"/>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B7" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="E8" s="20" t="s">
+      <c r="D7" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="G8" s="31"/>
+      <c r="F7" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="F9" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="G9" s="31"/>
-    </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="31"/>
-    </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="B9" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="18"/>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="31"/>
-    </row>
-    <row r="12" spans="1:7" s="42" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
+      <c r="B10" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" spans="1:7" s="28" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="C12" s="37" t="s">
+      <c r="B11" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="E12" s="37" t="s">
+      <c r="D11" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="51">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="43" customFormat="1" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="44" t="s">
+      <c r="F11" s="37">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="29" customFormat="1" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="47">
+      <c r="B12" s="33">
         <v>2</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C12" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="48">
+      <c r="D12" s="34">
         <v>1.5</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E12" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="48">
+      <c r="F12" s="34">
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E14" s="41" t="s">
+    <row r="13" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="F14" s="40">
-        <f>B13+D13+F13</f>
+      <c r="F13" s="26">
+        <f>B12+D12+F12</f>
         <v>5</v>
       </c>
     </row>
@@ -3655,259 +3525,245 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="8"/>
-    <col min="3" max="3" width="54.140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="8"/>
-    <col min="5" max="5" width="52.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="8"/>
-    <col min="7" max="7" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="50.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="6"/>
+    <col min="3" max="3" width="54.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="6"/>
+    <col min="5" max="5" width="52.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="6"/>
+    <col min="7" max="7" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="28" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="29"/>
-    </row>
-    <row r="2" spans="1:7" s="28" customFormat="1" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="93" t="s">
+    <row r="1" spans="1:7" s="15" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="16"/>
+    </row>
+    <row r="2" spans="1:7" s="15" customFormat="1" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="29"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="89" t="s">
+      <c r="B3" s="70"/>
+      <c r="C3" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="91" t="s">
+      <c r="D3" s="72"/>
+      <c r="E3" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="92"/>
-      <c r="G3" s="30"/>
-    </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="31"/>
-    </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="F3" s="74"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="C5" s="75" t="s">
+      <c r="B4" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="E5" s="76" t="s">
+      <c r="D4" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="F5" s="51">
+      <c r="F4" s="37">
         <v>1</v>
       </c>
-      <c r="G5" s="31"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="31"/>
+      <c r="A6" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="18"/>
     </row>
     <row r="7" spans="1:7" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="E7" s="73" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="G7" s="31"/>
+      <c r="A7" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="E8" s="73" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="G8" s="31"/>
+      <c r="A8" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="B9" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="E9" s="73" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="G9" s="31"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="E10" s="73" t="s">
-        <v>126</v>
-      </c>
-      <c r="F10" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="G10" s="31"/>
-    </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="39" t="s">
+      <c r="A10" s="22"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="F11" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="G11" s="31"/>
-    </row>
-    <row r="12" spans="1:7" s="42" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
+      <c r="F10" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" spans="1:7" s="28" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="C12" s="37" t="s">
+      <c r="B11" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="E12" s="37" t="s">
+      <c r="D11" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="51">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="43" customFormat="1" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="44" t="s">
+      <c r="F11" s="37">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="29" customFormat="1" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="47">
+      <c r="B12" s="33">
         <v>1.5</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C12" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="48">
+      <c r="D12" s="34">
         <v>2</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E12" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="48">
+      <c r="F12" s="34">
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E14" s="41" t="s">
+    <row r="13" spans="1:7" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="F14" s="40">
-        <f>B13+D13+F13</f>
+      <c r="F13" s="26">
+        <f>B12+D12+F12</f>
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:F1"/>
+  <mergeCells count="4">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -3924,282 +3780,270 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A3" sqref="A3:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="8"/>
-    <col min="3" max="3" width="49.140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="8"/>
-    <col min="5" max="5" width="52.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="8"/>
-    <col min="7" max="7" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="46.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="6"/>
+    <col min="3" max="3" width="49.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="6"/>
+    <col min="5" max="5" width="52.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="6"/>
+    <col min="7" max="7" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="28" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="29"/>
-    </row>
-    <row r="2" spans="1:7" s="28" customFormat="1" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="93" t="s">
+    <row r="1" spans="1:7" s="15" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="16"/>
+    </row>
+    <row r="2" spans="1:7" s="15" customFormat="1" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="29"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="89" t="s">
+      <c r="B3" s="70"/>
+      <c r="C3" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="91" t="s">
+      <c r="D3" s="72"/>
+      <c r="E3" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="92"/>
-      <c r="G3" s="30"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="31"/>
+      <c r="A4" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" s="37">
+        <v>1.5</v>
+      </c>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B5" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="E5" s="76" t="s">
-        <v>136</v>
-      </c>
-      <c r="F5" s="51">
+      <c r="A5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="37"/>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="18"/>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="18"/>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" spans="1:7" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="18"/>
+    </row>
+    <row r="12" spans="1:7" s="28" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="37">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="29" customFormat="1" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="33">
+        <v>2</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="34">
         <v>1.5</v>
       </c>
-      <c r="G5" s="31"/>
-    </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="31"/>
-    </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="E7" s="73" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="G7" s="31"/>
-    </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="E8" s="73" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="G8" s="31"/>
-    </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="78" t="s">
-        <v>130</v>
-      </c>
-      <c r="B9" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="E9" s="73" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="G9" s="31"/>
-    </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="78" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="C10" s="77" t="s">
-        <v>134</v>
-      </c>
-      <c r="D10" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="E10" s="73" t="s">
-        <v>126</v>
-      </c>
-      <c r="F10" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="G10" s="31"/>
-    </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="78" t="s">
-        <v>129</v>
-      </c>
-      <c r="B11" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="F11" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="G11" s="31"/>
-    </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="79" t="s">
-        <v>137</v>
-      </c>
-      <c r="B12" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="31"/>
-    </row>
-    <row r="13" spans="1:7" s="42" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="51">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="43" customFormat="1" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="44" t="s">
+      <c r="E13" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="47">
-        <v>2</v>
-      </c>
-      <c r="C14" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="48">
+      <c r="F13" s="34">
         <v>1.5</v>
       </c>
-      <c r="E14" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="48">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="41" t="s">
+    </row>
+    <row r="14" spans="1:7" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="F15" s="40">
-        <f>B14+D14+F14</f>
+      <c r="F14" s="26">
+        <f>B13+D13+F13</f>
         <v>5</v>
       </c>
     </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.15748031496062992" header="0" footer="0.11811023622047245"/>
